--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori5/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori5/99/word_level_predictions_99.xlsx
@@ -3362,260 +3362,260 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>1</v>
-      </c>
-      <c r="B57" t="inlineStr">
+      <c r="A57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K57" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="G57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" t="inlineStr">
+      <c r="A58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="A59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" t="inlineStr">
+      <c r="A60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" t="inlineStr">
+      <c r="A61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4402,262 +4402,262 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E77" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="I77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
+      <c r="I78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>ambient</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>15</v>
-      </c>
-      <c r="E78" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>too</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="I80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>2</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>light</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>16</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>2</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>too</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>17</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>2</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>18</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori5/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_original/ori5/99/word_level_predictions_99.xlsx
@@ -3362,260 +3362,260 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" t="n">
         <v>35</v>
       </c>
-      <c r="E57" s="2" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" t="n">
         <v>36</v>
       </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" t="n">
         <v>37</v>
       </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" t="n">
         <v>38</v>
       </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" t="n">
         <v>39</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4402,262 +4402,262 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
         <v>2</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" t="n">
         <v>14</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>2</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>ambient</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>15</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>2</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>16</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>2</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>17</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" t="n">
         <v>2</v>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" t="n">
         <v>18</v>
       </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
